--- a/Work Plan/Tasks.xlsx
+++ b/Work Plan/Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>Machine Design</t>
   </si>
@@ -304,6 +304,33 @@
   </si>
   <si>
     <t>Reflection</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Dd</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>I/o</t>
+  </si>
+  <si>
+    <t>Fe</t>
   </si>
 </sst>
 </file>
@@ -708,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,8 +776,8 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <f>PRODUCT((D3:D85)*(500/235.25))</f>
-        <v>2.1253985122210413</v>
+        <f>PRODUCT((D3:D85)*(20/13.5))</f>
+        <v>1.4814814814814814</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -765,8 +792,8 @@
         <v>4</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E67" si="0">PRODUCT((D4:D86)*(500/235.25))</f>
-        <v>8.501594048884165</v>
+        <f t="shared" ref="E4:E8" si="0">PRODUCT((D4:D86)*(20/13.5))</f>
+        <v>5.9259259259259256</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -782,7 +809,7 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <v>5.9259259259259256</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
@@ -798,7 +825,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>4.2507970244420825</v>
+        <v>2.9629629629629628</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -812,7 +839,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
+        <v>1.4814814814814814</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -826,16 +853,20 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>3.1880977683315619</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D9">
+        <f>SUM(D3:D8)</f>
+        <v>13.5</v>
+      </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E3:E8)</f>
+        <v>19.999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -852,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E67" si="1">PRODUCT((D10:D92)*(500/235.25))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -870,8 +901,8 @@
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
+        <f>PRODUCT((D11:D93)*(135/19.5))</f>
+        <v>6.9230769230769234</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -884,8 +915,8 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1880977683315619</v>
+        <f t="shared" ref="E12:E21" si="2">PRODUCT((D12:D94)*(135/19.5))</f>
+        <v>10.384615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -898,8 +929,8 @@
         <v>2</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2507970244420825</v>
+        <f t="shared" si="2"/>
+        <v>13.846153846153847</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -912,8 +943,8 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
+        <f t="shared" si="2"/>
+        <v>6.9230769230769234</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -926,8 +957,8 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
+        <f t="shared" si="2"/>
+        <v>6.9230769230769234</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -940,11 +971,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>6.9230769230769234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -954,11 +985,11 @@
         <v>4</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>27.692307692307693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -968,11 +999,11 @@
         <v>5</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>10.626992561105206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>34.615384615384613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -982,11 +1013,11 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0626992561105206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>3.4615384615384617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -996,11 +1027,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>6.9230769230769234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1010,20 +1041,24 @@
         <v>1.5</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1880977683315619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>10.384615384615385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D22">
+        <f>SUM(D11:D21)</f>
+        <v>19.5</v>
+      </c>
       <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(E11:E21)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1037,11 +1072,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1053,11 +1088,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>PRODUCT((D24:D106)*(100/17))</f>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
@@ -1067,11 +1105,14 @@
         <v>3</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3761955366631238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E25:E31" si="3">PRODUCT((D25:D107)*(100/17))</f>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1081,11 +1122,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1095,11 +1139,14 @@
         <v>6</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>12.752391073326248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1109,11 +1156,14 @@
         <v>3</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3761955366631238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -1123,11 +1173,14 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0626992561105206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -1137,11 +1190,14 @@
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -1151,20 +1207,27 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1880977683315619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D32">
+        <f>SUM(D24:D31)</f>
+        <v>17</v>
+      </c>
       <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(E24:E31)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1178,11 +1241,11 @@
         <v>4</v>
       </c>
       <c r="E33" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1194,11 +1257,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f>PRODUCT((D34:D116)*(60/20))</f>
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1208,11 +1274,14 @@
         <v>4</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E35:E42" si="4">PRODUCT((D35:D117)*(60/20))</f>
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1222,11 +1291,14 @@
         <v>3</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3761955366631238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1236,11 +1308,14 @@
         <v>2</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2507970244420825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -1250,11 +1325,14 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0626992561105206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1264,11 +1342,14 @@
         <v>6</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="0"/>
-        <v>12.752391073326248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1278,11 +1359,14 @@
         <v>1</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1292,11 +1376,14 @@
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1253985122210413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1306,20 +1393,27 @@
         <v>1.5</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="0"/>
-        <v>3.1880977683315619</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D43">
+        <f>SUM(D34:D42)</f>
+        <v>20</v>
+      </c>
       <c r="E43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(E34:E42)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,11 +1427,11 @@
         <v>4</v>
       </c>
       <c r="E44" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -1349,11 +1443,11 @@
         <v>2</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2507970244420825</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>PRODUCT((D45:D127)*(75/139))</f>
+        <v>1.079136690647482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>25</v>
       </c>
@@ -1363,11 +1457,11 @@
         <v>0.5</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0626992561105206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E46:E66" si="5">PRODUCT((D46:D128)*(75/139))</f>
+        <v>0.26978417266187049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
@@ -1377,11 +1471,11 @@
         <v>8</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="0"/>
-        <v>17.00318809776833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>4.3165467625899279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -1391,8 +1485,8 @@
         <v>4</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="5"/>
+        <v>2.1582733812949639</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,8 +1499,8 @@
         <v>4</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="5"/>
+        <v>2.1582733812949639</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1419,8 +1513,8 @@
         <v>3</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3761955366631238</v>
+        <f t="shared" si="5"/>
+        <v>1.6187050359712229</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -1433,8 +1527,8 @@
         <v>3.5</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="0"/>
-        <v>7.4388947927736444</v>
+        <f t="shared" si="5"/>
+        <v>1.8884892086330933</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1447,8 +1541,8 @@
         <v>22</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="0"/>
-        <v>46.758767268862911</v>
+        <f t="shared" si="5"/>
+        <v>11.870503597122301</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,8 +1555,8 @@
         <v>5</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="0"/>
-        <v>10.626992561105206</v>
+        <f t="shared" si="5"/>
+        <v>2.6978417266187051</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1475,8 +1569,8 @@
         <v>7</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="0"/>
-        <v>14.877789585547289</v>
+        <f t="shared" si="5"/>
+        <v>3.7769784172661867</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1489,8 +1583,8 @@
         <v>4</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="5"/>
+        <v>2.1582733812949639</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1503,8 +1597,8 @@
         <v>12</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="0"/>
-        <v>25.504782146652495</v>
+        <f t="shared" si="5"/>
+        <v>6.4748201438848918</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1517,8 +1611,8 @@
         <v>8</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="0"/>
-        <v>17.00318809776833</v>
+        <f t="shared" si="5"/>
+        <v>4.3165467625899279</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1531,8 +1625,8 @@
         <v>12</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="0"/>
-        <v>25.504782146652495</v>
+        <f t="shared" si="5"/>
+        <v>6.4748201438848918</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1545,8 +1639,8 @@
         <v>10</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="0"/>
-        <v>21.253985122210413</v>
+        <f t="shared" si="5"/>
+        <v>5.3956834532374103</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,8 +1653,8 @@
         <v>2</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="0"/>
-        <v>4.2507970244420825</v>
+        <f t="shared" si="5"/>
+        <v>1.079136690647482</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1573,8 +1667,8 @@
         <v>3</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3761955366631238</v>
+        <f t="shared" si="5"/>
+        <v>1.6187050359712229</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1587,8 +1681,8 @@
         <v>5</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="0"/>
-        <v>10.626992561105206</v>
+        <f t="shared" si="5"/>
+        <v>2.6978417266187051</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1601,8 +1695,8 @@
         <v>4</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="5"/>
+        <v>2.1582733812949639</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1615,8 +1709,8 @@
         <v>8</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="0"/>
-        <v>17.00318809776833</v>
+        <f t="shared" si="5"/>
+        <v>4.3165467625899279</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1629,8 +1723,8 @@
         <v>4</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="0"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="5"/>
+        <v>2.1582733812949639</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1643,17 +1737,21 @@
         <v>8</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" si="0"/>
-        <v>17.00318809776833</v>
+        <f t="shared" si="5"/>
+        <v>4.3165467625899279</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D67">
+        <f>SUM(D45:D66)</f>
+        <v>139</v>
+      </c>
       <c r="E67" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E45:E66)</f>
+        <v>74.999999999999986</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1670,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="6" t="e">
-        <f t="shared" ref="E68:E85" si="1">PRODUCT((D68:D150)*(500/235.25))</f>
+        <f t="shared" ref="E68:E85" si="6">PRODUCT((D68:D150)*(500/235.25))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1686,8 +1784,8 @@
         <v>3</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="1"/>
-        <v>6.3761955366631238</v>
+        <f>PRODUCT((D69:D151)*(45/19))</f>
+        <v>7.1052631578947363</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1700,8 +1798,8 @@
         <v>0.5</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0626992561105206</v>
+        <f t="shared" ref="E70:E77" si="7">PRODUCT((D70:D152)*(45/19))</f>
+        <v>1.1842105263157894</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1714,8 +1812,8 @@
         <v>1</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="1"/>
-        <v>2.1253985122210413</v>
+        <f t="shared" si="7"/>
+        <v>2.3684210526315788</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1728,8 +1826,8 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0626992561105206</v>
+        <f t="shared" si="7"/>
+        <v>1.1842105263157894</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1742,8 +1840,8 @@
         <v>1</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="1"/>
-        <v>2.1253985122210413</v>
+        <f t="shared" si="7"/>
+        <v>2.3684210526315788</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1756,8 +1854,8 @@
         <v>3</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="1"/>
-        <v>6.3761955366631238</v>
+        <f t="shared" si="7"/>
+        <v>7.1052631578947363</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1770,8 +1868,8 @@
         <v>4</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="1"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="7"/>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1784,8 +1882,8 @@
         <v>4</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="1"/>
-        <v>8.501594048884165</v>
+        <f t="shared" si="7"/>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1798,17 +1896,21 @@
         <v>2</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="1"/>
-        <v>4.2507970244420825</v>
+        <f t="shared" si="7"/>
+        <v>4.7368421052631575</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D78">
+        <f>SUM(D69:D77)</f>
+        <v>19</v>
+      </c>
       <c r="E78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E69:E77)</f>
+        <v>44.999999999999993</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1825,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1841,11 +1943,11 @@
         <v>5</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="1"/>
-        <v>10.626992561105206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <f>PRODUCT((D80:D162)*(45/7.25))</f>
+        <v>31.03448275862069</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>74</v>
       </c>
@@ -1857,11 +1959,11 @@
         <v>0.25</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="1"/>
-        <v>0.53134962805526031</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E81:E82" si="8">PRODUCT((D81:D163)*(45/7.25))</f>
+        <v>1.5517241379310345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>76</v>
       </c>
@@ -1871,20 +1973,20 @@
         <v>0.5</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0626992561105206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(E80:E82)</f>
+        <v>35.689655172413794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
@@ -1898,11 +2000,11 @@
         <v>4</v>
       </c>
       <c r="E84" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>77</v>
       </c>
@@ -1912,15 +2014,28 @@
         <v>1.5</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="1"/>
-        <v>3.1880977683315619</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <f>PRODUCT((D85:D167)*(45/7.25))</f>
+        <v>9.3103448275862064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="D86">
-        <f>SUM(D1:D85)</f>
-        <v>235.25</v>
+        <f>SUM(D80:D82,D85)</f>
+        <v>7.25</v>
+      </c>
+      <c r="E86" s="6">
+        <f>SUM(E80:E82,E85)</f>
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <f>SUM(E86,E83,E78,E67,E43,E32,E22,E9)</f>
+        <v>515.68965517241372</v>
       </c>
     </row>
   </sheetData>
